--- a/TEST_CASE_1.xlsx
+++ b/TEST_CASE_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="89">
   <si>
     <t>TEST SCENARIO</t>
   </si>
@@ -220,12 +220,6 @@
   </si>
   <si>
     <t>TC_015</t>
-  </si>
-  <si>
-    <t>Account Creation</t>
-  </si>
-  <si>
-    <t>Account Login</t>
   </si>
   <si>
     <t>Returns to the Homepage; A popup appears stating, "Successfully Registered! and you can now login."</t>
@@ -284,6 +278,57 @@
       </rPr>
       <t xml:space="preserve"> email address."</t>
     </r>
+  </si>
+  <si>
+    <t>Create Account</t>
+  </si>
+  <si>
+    <t>Login Account</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>No Input</t>
+  </si>
+  <si>
+    <t>A popup pointing towards both fields  appears stating, "please fill out this field."</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>Register A Username Already In Use</t>
+  </si>
+  <si>
+    <t>Register An E-Mail Already In Use</t>
+  </si>
+  <si>
+    <t>&lt;pre-registered username&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pre-registered E-Mail&gt;</t>
+  </si>
+  <si>
+    <t>Text is printed above the interface stating, "That username exists. Please choose a different one."</t>
+  </si>
+  <si>
+    <t>Text is printed above the interface stating, "email already in use. Please choose a different one."</t>
+  </si>
+  <si>
+    <t>A popup pointing towards the username field  appears stating, "Username already in use. Please choose a different one."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a popup pointing towards the E-Mail field stating,"E-Mail already in use. Please choose a different one." </t>
   </si>
 </sst>
 </file>
@@ -345,9 +390,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -663,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,17 +752,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -723,42 +771,42 @@
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -767,756 +815,756 @@
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+    <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+    <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -1525,42 +1573,42 @@
       <c r="F48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+    <row r="49" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -1569,348 +1617,348 @@
       <c r="F50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+    <row r="51" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I52" s="5" t="s">
+      <c r="G52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+    <row r="53" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="3"/>
+      <c r="D58" s="4"/>
       <c r="E58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+    <row r="59" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
       <c r="E63" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="3"/>
+      <c r="C64" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="4"/>
       <c r="E64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I64" s="4" t="s">
+      <c r="G64" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I64" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+    <row r="65" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="3" t="s">
+      <c r="C70" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -1919,49 +1967,486 @@
       <c r="F70" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I70" s="4" t="s">
+      <c r="G70" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I70" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+    <row r="71" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="105">
-    <mergeCell ref="H64:H69"/>
-    <mergeCell ref="I64:I69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="G64:G69"/>
+  <mergeCells count="133">
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="C80:C85"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="G80:G85"/>
+    <mergeCell ref="H80:H85"/>
+    <mergeCell ref="I80:I85"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="C86:C91"/>
+    <mergeCell ref="D86:D91"/>
+    <mergeCell ref="G86:G91"/>
+    <mergeCell ref="H86:H91"/>
+    <mergeCell ref="I86:I91"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="C74:C79"/>
+    <mergeCell ref="D74:D79"/>
+    <mergeCell ref="G74:G79"/>
+    <mergeCell ref="H74:H79"/>
+    <mergeCell ref="I74:I79"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H6:H11"/>
+    <mergeCell ref="I6:I11"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="G6:G11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="H12:H17"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="H18:H23"/>
+    <mergeCell ref="I18:I23"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="I24:I29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="H36:H41"/>
+    <mergeCell ref="I36:I41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="D42:D47"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="G42:G47"/>
+    <mergeCell ref="H42:H47"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="G36:G41"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="G52:G57"/>
     <mergeCell ref="H50:H51"/>
     <mergeCell ref="I50:I51"/>
     <mergeCell ref="A58:A63"/>
@@ -1978,81 +2463,20 @@
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="H52:H57"/>
     <mergeCell ref="I52:I57"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="G52:G57"/>
-    <mergeCell ref="H36:H41"/>
-    <mergeCell ref="I36:I41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="D42:D47"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="G42:G47"/>
-    <mergeCell ref="H42:H47"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="C36:C41"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="G36:G41"/>
-    <mergeCell ref="H24:H29"/>
-    <mergeCell ref="I24:I29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="H12:H17"/>
-    <mergeCell ref="I12:I17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="H18:H23"/>
-    <mergeCell ref="I18:I23"/>
-    <mergeCell ref="H6:H11"/>
-    <mergeCell ref="I6:I11"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="G6:G11"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H64:H69"/>
+    <mergeCell ref="I64:I69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="G64:G69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/TEST_CASE_1.xlsx
+++ b/TEST_CASE_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="91">
   <si>
     <t>TEST SCENARIO</t>
   </si>
@@ -330,12 +330,18 @@
   <si>
     <t xml:space="preserve">a popup pointing towards the E-Mail field stating,"E-Mail already in use. Please choose a different one." </t>
   </si>
+  <si>
+    <t>ITERATION</t>
+  </si>
+  <si>
+    <t>Text is printed above the interface stating, "You have entered an incorrect email or password"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +357,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -361,20 +381,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -387,17 +405,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -405,13 +419,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -711,48 +736,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="25.7109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -777,11 +814,14 @@
       <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -794,9 +834,10 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -821,11 +862,14 @@
       <c r="H4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -838,9 +882,10 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -863,11 +908,14 @@
       <c r="H6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -881,8 +929,9 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -896,8 +945,9 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -911,8 +961,9 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -926,8 +977,9 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -941,8 +993,9 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -965,11 +1018,14 @@
       <c r="H12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -983,8 +1039,9 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -998,8 +1055,9 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1013,8 +1071,9 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1028,8 +1087,9 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1043,8 +1103,9 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1067,11 +1128,14 @@
       <c r="H18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1085,8 +1149,9 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1100,8 +1165,9 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1115,8 +1181,9 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1130,8 +1197,9 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1145,8 +1213,9 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -1169,11 +1238,14 @@
       <c r="H24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1187,8 +1259,9 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1202,8 +1275,9 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1217,8 +1291,9 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1232,8 +1307,9 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1247,8 +1323,9 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
@@ -1271,11 +1348,14 @@
       <c r="H30" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1289,8 +1369,9 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1304,8 +1385,9 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1319,8 +1401,9 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1334,8 +1417,9 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1349,8 +1433,9 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -1373,11 +1458,14 @@
       <c r="H36" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="6">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1391,8 +1479,9 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1406,8 +1495,9 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1421,8 +1511,9 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1436,8 +1527,9 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1451,8 +1543,9 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>35</v>
       </c>
@@ -1475,11 +1568,14 @@
       <c r="H42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="6">
+        <v>1</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1492,9 +1588,10 @@
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="6"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1507,9 +1604,10 @@
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="6"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1522,9 +1620,10 @@
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="6"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1537,9 +1636,10 @@
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="6"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1552,9 +1652,10 @@
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="6"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
@@ -1574,16 +1675,19 @@
         <v>51</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="6">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1596,9 +1700,10 @@
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="6"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -1618,16 +1723,19 @@
         <v>16</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="6">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1640,9 +1748,10 @@
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="6"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -1665,11 +1774,14 @@
       <c r="H52" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="6">
+        <v>1</v>
+      </c>
+      <c r="J52" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1683,8 +1795,9 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1698,8 +1811,9 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1713,8 +1827,9 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1728,8 +1843,9 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1743,8 +1859,9 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>55</v>
       </c>
@@ -1767,11 +1884,14 @@
       <c r="H58" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I58" s="6">
+        <v>1</v>
+      </c>
+      <c r="J58" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1785,8 +1905,9 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1800,8 +1921,9 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1815,8 +1937,9 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1830,8 +1953,9 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1845,8 +1969,9 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>56</v>
       </c>
@@ -1869,11 +1994,14 @@
       <c r="H64" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="I64" s="6">
+        <v>1</v>
+      </c>
+      <c r="J64" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1886,9 +2014,10 @@
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="6"/>
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1901,9 +2030,10 @@
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="5"/>
-    </row>
-    <row r="67" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="6"/>
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1916,9 +2046,10 @@
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="5"/>
-    </row>
-    <row r="68" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="6"/>
+      <c r="J67" s="7"/>
+    </row>
+    <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1931,9 +2062,10 @@
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="6"/>
+      <c r="J68" s="7"/>
+    </row>
+    <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1946,9 +2078,10 @@
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="6"/>
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>67</v>
       </c>
@@ -1973,11 +2106,14 @@
       <c r="H70" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" s="6">
+        <v>1</v>
+      </c>
+      <c r="J70" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1990,9 +2126,10 @@
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="6"/>
+      <c r="J71" s="7"/>
+    </row>
+    <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>74</v>
       </c>
@@ -2005,7 +2142,7 @@
       <c r="D72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="2" t="s">
@@ -2017,16 +2154,19 @@
       <c r="H72" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I72" s="6" t="s">
+      <c r="I72" s="6">
+        <v>1</v>
+      </c>
+      <c r="J72" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="2" t="s">
@@ -2035,8 +2175,9 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>75</v>
       </c>
@@ -2047,7 +2188,7 @@
         <v>77</v>
       </c>
       <c r="D74" s="4"/>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="2" t="s">
@@ -2059,16 +2200,19 @@
       <c r="H74" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="I74" s="6">
+        <v>1</v>
+      </c>
+      <c r="J74" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
@@ -2077,13 +2221,14 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="2" t="s">
@@ -2092,13 +2237,14 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="6"/>
-    </row>
-    <row r="77" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F77" s="2" t="s">
@@ -2107,13 +2253,14 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="6"/>
-    </row>
-    <row r="78" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F78" s="2" t="s">
@@ -2122,13 +2269,14 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F79" s="2" t="s">
@@ -2137,8 +2285,9 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="6"/>
-    </row>
-    <row r="80" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>79</v>
       </c>
@@ -2149,10 +2298,10 @@
         <v>81</v>
       </c>
       <c r="D80" s="4"/>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G80" s="4" t="s">
@@ -2161,86 +2310,94 @@
       <c r="H80" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I80" s="6" t="s">
+      <c r="I80" s="6">
+        <v>1</v>
+      </c>
+      <c r="J80" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="6"/>
-    </row>
-    <row r="83" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="6"/>
-    </row>
-    <row r="86" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>80</v>
       </c>
@@ -2251,10 +2408,10 @@
         <v>82</v>
       </c>
       <c r="D86" s="4"/>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="4" t="s">
@@ -2263,131 +2420,185 @@
       <c r="H86" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I86" s="6" t="s">
+      <c r="I86" s="6">
+        <v>1</v>
+      </c>
+      <c r="J86" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="2" t="s">
         <v>84</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="6"/>
-    </row>
-    <row r="88" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="6"/>
-    </row>
-    <row r="89" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="6"/>
-    </row>
-    <row r="90" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="6"/>
-    </row>
-    <row r="91" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="6"/>
+      <c r="J91" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="133">
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="C80:C85"/>
-    <mergeCell ref="D80:D85"/>
-    <mergeCell ref="G80:G85"/>
-    <mergeCell ref="H80:H85"/>
-    <mergeCell ref="I80:I85"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="C86:C91"/>
-    <mergeCell ref="D86:D91"/>
-    <mergeCell ref="G86:G91"/>
-    <mergeCell ref="H86:H91"/>
-    <mergeCell ref="I86:I91"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="C74:C79"/>
-    <mergeCell ref="D74:D79"/>
-    <mergeCell ref="G74:G79"/>
-    <mergeCell ref="H74:H79"/>
-    <mergeCell ref="I74:I79"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G4:G5"/>
+  <mergeCells count="152">
+    <mergeCell ref="H64:H69"/>
+    <mergeCell ref="J64:J69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="G64:G69"/>
+    <mergeCell ref="I64:I69"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="G58:G63"/>
+    <mergeCell ref="H58:H63"/>
+    <mergeCell ref="J58:J63"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H52:H57"/>
+    <mergeCell ref="J52:J57"/>
+    <mergeCell ref="I58:I63"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="G52:G57"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I52:I57"/>
+    <mergeCell ref="H36:H41"/>
+    <mergeCell ref="J36:J41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="D42:D47"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="G42:G47"/>
+    <mergeCell ref="H42:H47"/>
+    <mergeCell ref="J42:J47"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="G36:G41"/>
+    <mergeCell ref="I36:I41"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="J30:J35"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="H18:H23"/>
+    <mergeCell ref="J18:J23"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="J24:J29"/>
+    <mergeCell ref="I18:I23"/>
+    <mergeCell ref="I24:I29"/>
     <mergeCell ref="H6:H11"/>
-    <mergeCell ref="I6:I11"/>
+    <mergeCell ref="J6:J11"/>
     <mergeCell ref="D12:D17"/>
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="B12:B17"/>
@@ -2399,87 +2610,60 @@
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="G12:G17"/>
     <mergeCell ref="H12:H17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="I6:I11"/>
     <mergeCell ref="I12:I17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="H18:H23"/>
-    <mergeCell ref="I18:I23"/>
-    <mergeCell ref="H24:H29"/>
-    <mergeCell ref="I24:I29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="H36:H41"/>
-    <mergeCell ref="I36:I41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="D42:D47"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="G42:G47"/>
-    <mergeCell ref="H42:H47"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="C36:C41"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="G36:G41"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="G52:G57"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="G58:G63"/>
-    <mergeCell ref="H58:H63"/>
-    <mergeCell ref="I58:I63"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H52:H57"/>
-    <mergeCell ref="I52:I57"/>
-    <mergeCell ref="H64:H69"/>
-    <mergeCell ref="I64:I69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="G64:G69"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="C74:C79"/>
+    <mergeCell ref="D74:D79"/>
+    <mergeCell ref="G74:G79"/>
+    <mergeCell ref="H74:H79"/>
+    <mergeCell ref="J74:J79"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I74:I79"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="C80:C85"/>
+    <mergeCell ref="D80:D85"/>
+    <mergeCell ref="G80:G85"/>
+    <mergeCell ref="H80:H85"/>
+    <mergeCell ref="J80:J85"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="C86:C91"/>
+    <mergeCell ref="D86:D91"/>
+    <mergeCell ref="G86:G91"/>
+    <mergeCell ref="H86:H91"/>
+    <mergeCell ref="J86:J91"/>
+    <mergeCell ref="I80:I85"/>
+    <mergeCell ref="I86:I91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
